--- a/GDB_for_RD.xlsx
+++ b/GDB_for_RD.xlsx
@@ -215,7 +215,7 @@
     <t xml:space="preserve">%GDP spend on R&amp;D (2014 or latest avail.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of full time researchers (thousands in 2014)</t>
+    <t xml:space="preserve">Number of full time researchers (thousands in 2014 or latest avail.)</t>
   </si>
   <si>
     <t xml:space="preserve">Researchers in R&amp;D per million people (in 2014 or latest avail.)</t>
@@ -449,7 +449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,10 +522,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -545,18 +541,18 @@
   </sheetPr>
   <dimension ref="1:39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.73279352226721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.95546558704453"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.84615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="59.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1504,14 +1500,14 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,14 +2460,14 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,24 +3339,25 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.27125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.5587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.32793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2550607287449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="61.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="12" customFormat="true" ht="80.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3389,7 +3386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>0.208333333333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>0.130434782608696</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -3581,7 +3578,7 @@
         <v>0.11864406779661</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
@@ -3613,7 +3610,7 @@
         <v>0.108108108108108</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>15</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>0.153965785381026</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>0.179586563307494</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3770,7 @@
         <v>0.0315789473684211</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>19</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>0.0851063829787234</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>0.076271186440678</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
@@ -3901,7 +3898,7 @@
         <v>0.245535714285714</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>23</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>0.0656753407682776</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>24</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>25</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>0.222222222222222</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>26</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>0.200471698113208</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>28</v>
       </c>
@@ -4093,7 +4090,7 @@
         <v>0.0454545454545455</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>29</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>0.043859649122807</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>30</v>
       </c>
@@ -4157,7 +4154,7 @@
         <v>0.0775862068965517</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>31</v>
       </c>
@@ -4189,7 +4186,7 @@
         <v>0.0212765957446808</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>32</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>33</v>
       </c>
@@ -4253,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>0.0588235294117647</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>35</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>0.0823754789272031</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>36</v>
       </c>
@@ -4349,7 +4346,7 @@
         <v>0.141592920353982</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>37</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>0.233766233766234</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>38</v>
       </c>
@@ -4413,7 +4410,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>39</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>40</v>
       </c>
@@ -4458,7 +4455,7 @@
       <c r="D35" s="13" t="n">
         <v>1.70069003105164</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E35" s="14" t="n">
         <v>273.56</v>
       </c>
       <c r="F35" s="15" t="n">
